--- a/DataBI/Argent.xlsx
+++ b/DataBI/Argent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\DataBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA7F7C-34B9-4834-898E-E405F6679A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA243C-327A-46B6-9B70-F6622A9EDCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CF0B3DCD-5CB4-47ED-B37A-B8645420D561}"/>
   </bookViews>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA461271-B589-4806-AF1C-47B1E6E94498}">
   <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45366</v>
+        <v>45397</v>
       </c>
       <c r="B64">
         <v>0.91439999999999999</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45367</v>
+        <v>45398</v>
       </c>
       <c r="B65">
         <v>0.90839999999999999</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45368</v>
+        <v>45399</v>
       </c>
       <c r="B66">
         <v>0.9153</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45369</v>
+        <v>45400</v>
       </c>
       <c r="B67">
         <v>0.9153</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45370</v>
+        <v>45401</v>
       </c>
       <c r="B68">
         <v>0.90790000000000004</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>45297</v>
+        <v>45663</v>
       </c>
       <c r="B246">
         <v>0.97319999999999995</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>45298</v>
+        <v>45664</v>
       </c>
       <c r="B247">
         <v>0.97209999999999996</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>45299</v>
+        <v>45665</v>
       </c>
       <c r="B248">
         <v>0.96899999999999997</v>

--- a/DataBI/Argent.xlsx
+++ b/DataBI/Argent.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31,53</t>
+          <t>31,577</t>
         </is>
       </c>
     </row>
@@ -454,6 +454,18 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>31,3037</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04/02/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>31,53</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent.xlsx
+++ b/DataBI/Argent.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31,577</t>
+          <t>31,5522</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31,53</t>
+          <t>31,41</t>
         </is>
       </c>
     </row>
